--- a/src/data/France_Category.xlsx
+++ b/src/data/France_Category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjh57\OneDrive\바탕 화면\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C03057F-E877-434D-9F5A-D2FA4D115F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A046AE-E01B-4D48-B7C2-AC233A921C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{73E4E33B-0895-497F-8F78-A40EB157E2FE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="739">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1550,13 +1550,758 @@
   </si>
   <si>
     <t>https://strafaristrasbourg.files.wordpress.com/2020/06/strafari-strasbourg-facade-cathedrale-quai-des-bateliers-palais-rohan-europe.jpg?w=1200</t>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파리의 상징적인 랜드마크로, 아름다운 전망과 탑의 아키텍처를 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세계적으로 유명한 미술관으로, 다양한 예술 작품과 유물을 전시하고 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 대표적인 성당으로, 고딕 양식의 아름다운 건축물과 유서 깊은 역사를 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 아르쥬 드 트리옴프라는 개선 기념관으로, 파리의 중심에 위치하고 있습니다.</t>
+  </si>
+  <si>
+    <t>베르사유 궁전으로, 화려한 궁전과 정원을 감상할 수 있으며 프랑스 왕실의 역사적인 장소입니다.</t>
+  </si>
+  <si>
+    <t>오르세 박물관으로, 인상주의와 후기 인상주의 작품을 전시하고 있으며 고딕 양식의 역사적인 건물입니다.</t>
+  </si>
+  <si>
+    <t>성채로 알려진 성당으로, 아름다운 스테인드 글라스 창문과 중세 시대의 건축물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 왕궁으로, 역사적인 궁전과 정원을 탐방할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>군인들의 전쟁 무덤으로 알려진 건물로, 군사 박물관과 네오클래식 양식의 군사 병원으로 알려져 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 역사적인 기념물로, 유명한 인물들의 무덤이 있는 건물입니다.</t>
+  </si>
+  <si>
+    <t>고딕 양식으로 건축된 파리 오페라 극장으로, 아름다운 인테리어와 오페라 공연을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>과거에는 교도소로 사용된 건물로, 현재는 역사적인 건축물과 박물관으로 이용되고 있습니다.</t>
+  </si>
+  <si>
+    <t>현대 예술과 문화를 전시하는 건물로, 유니크한 외부 디자인과 다양한 전시물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>로뎅 박물관으로, 로뎅의 조각작품과 아름다운 정원을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>피카소 박물관으로, 피카소의 작품과 예술적 업적을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>로렌스 박물관으로, 몽마르뜨 언덕에 위치한 이곳에서 임프레션 주의 작품을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>클루니 박물관으로, 중세 시대의 예술과 문화 유물을 전시하고 있습니다.</t>
+  </si>
+  <si>
+    <t>보주 광장으로, 역사적인 광장으로 알려져 있으며 아름다운 건물과 공원을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>브랑리 강변 박물관으로, 다양한 원주민 문화와 예술 작품을 전시하고 있습니다.</t>
+  </si>
+  <si>
+    <t>그랑 팔레로, 아름다운 건축물과 예술 전시를 즐길 수 있는 문화 센터입니다.</t>
+  </si>
+  <si>
+    <t>파리 생제르맹 축구 클럽의 경기장으로, 축구 경기를 관람할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 국립 경기장으로, 다양한 스포츠 경기와 대규모 이벤트가 개최되는 장소입니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 다목적 경기장으로, 다양한 스포츠 경기와 이벤트가 개최되는 장소입니다.</t>
+  </si>
+  <si>
+    <t>파리 FC 축구 클럽의 홈 경기장으로, 축구 경기를 관람할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 대표적인 공원으로, 피크닉과 산책을 즐길 수 있으며 자연과 풍경을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 공원으로, 호수와 폭포, 정원을 포함한 아름다운 경치를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 몽마르뜨 지역에 위치한 언덕으로, 예술가들의 거리와 사크레 쥬르 대성당을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리에 위치한 운하로, 아름다운 경치와 산책을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>몽마르뜨 지역에 위치한 공원으로, 역사적인 묘지로 유명합니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 대표적인 동물원으로, 다양한 퓨마와 대형 고양이 종을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 공원으로, 피크닉과 산책을 즐길 수 있는 아름다운 장소입니다.</t>
+  </si>
+  <si>
+    <t>리옹에 위치한 대규모 공원으로, 호수, 정원, 동물원 등을 포함한 다양한 활동을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리에 위치한 대형 공원으로, 콘서트, 전시회, 공연 등 다양한 문화 행사가 개최되는 장소입니다.</t>
+  </si>
+  <si>
+    <t>베르사유 궁전 근처에 위치한 큰 규모의 공원으로, 아름다운 정원과 호수를 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 유명한 대로로, 상점, 레스토랑, 카페 등 다양한 쇼핑과 엔터테인먼트를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>센 강을 유람선으로 타고 파리의 아름다운 경치와 유명한 건축물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 몽파르나스 지역에 위치한 전망대로, 파리의 아름다운 도시 경관을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 유명 백화점으로, 고급 브랜드의 패션과 럭셔리 제품을 쇼핑할 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>파리에서 가장 유명한 대로로, 상점, 카페, 영화관 등이 있는 번화한 거리입니다.</t>
+  </si>
+  <si>
+    <t>파리의 고급 주택가로, 명품 브랜드의 부티크와 럭셔리한 상점이 위치해 있습니다.</t>
+  </si>
+  <si>
+    <t>문화와 예술의 중심지로, 아름다운 광장과 카페, 서점, 갤러리 등이 있는 지구입니다.</t>
+  </si>
+  <si>
+    <t>유럽에서 가장 유명한 벼룩시장으로, 다양한 고유의 물품과 골동품을 구경하고 구매할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>세계에서 가장 오래된 백화점 중 하나로, 파리의 하이패션과 럭셔리 제품을 쇼핑할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 중심에 위치한 대형 쇼핑 센터로, 다양한 패션 브랜드와 레스토랑, 영화관 등을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 중심에 위치한 쇼핑 거리로, 다양한 상점과 브랜드 매장이 있어 쇼핑을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리 근교에 위치한 아울렛 쇼핑 센터로, 유명 브랜드의 할인 가격으로 제품을 구매할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>안티크와 고유의 물건을 판매하는 유명한 벼룩시장으로, 다양한 보석, 가구, 옷 등을 구경할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리에서 유명한 고급 레스토랑으로, 프랑스 요리의 정통을 맛볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 역사적인 레스토랑으로, 아름다운 아르누보 스타일의 인테리어와 훌륭한 프랑스 요리를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 유명한 레스토랑으로, 18세기의 화려한 인테리어와 미식가들을 위한 고풍스러운 요리로 유명합니다.</t>
+  </si>
+  <si>
+    <t>아르누보 스타일의 아름다운 레스토랑으로, 예술과 미식을 결합한 고급 프렌치 요리를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리 루브르 박물관 근처에 위치한 와인 동굴로, 와인 제조 과정을 배우고 시음할 수 있는 투어를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>파리의 지형적인 랜드마크로, 몽파르나스 타워에서 파리의 아름다운 경치를 감상할 수 있으며, 예술가와 작가들이 모인 역사적인 지역입니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 교외에 위치한 아름다운 지역으로, 역사적인 성당과 매력적인 마을을 탐험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스 프로방스 지역의 역사와 문화를 소개하는 박물관으로, 예술품과 전통적인 공예품을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마르세유에 위치한 미술관으로, 고대부터 현대까지 다양한 작품을 전시하고 있습니다.</t>
+  </si>
+  <si>
+    <t>마르세유에 위치한 현대 미술관으로, 실험적이고 현대적인 작품들을 전시하고 있습니다.</t>
+  </si>
+  <si>
+    <t>아름다운 건물과 훌륭한 공연으로 유명한 마르세유의 오페라 하우스입니다.</t>
+  </si>
+  <si>
+    <t>마르세유의 상징적인 성당으로, 도시의 최고지점에 위치하며 아름다운 전망을 제공합니다.</t>
+  </si>
+  <si>
+    <t>예술과 문화의 중심지로, 다양한 예술과 공연을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>마르세유의 역사와 문화를 탐험할 수 있는 박물관으로, 다양한 전시물과 컬렉션을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>현대 예술을 전시하는 미술관으로, 다양한 작가들의 작품을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마르세유 축구 클럽의 홈 그라운드로, 열정적인 축구 경기를 관람할 수 있는 스타디움입니다.</t>
+  </si>
+  <si>
+    <t>축구와 관련된 역사와 전시물을 소개하는 박물관으로, 축구 팬들에게 흥미로운 장소입니다.</t>
+  </si>
+  <si>
+    <t>마르세유 축구 클럽의 이전 홈 그라운드로, 축구 경기와 이벤트를 즐길 수 있는 스타디움입니다.</t>
+  </si>
+  <si>
+    <t>아름다운 해안선과 해변으로 유명한 자연 보호구역으로, 하이킹, 등산, 해변 관광 등을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마르세유에서 아름다운 전망을 제공하는 언덕 지역으로, 트래킹이나 피크닉과 같은 야외 활동에 적합합니다.</t>
+  </si>
+  <si>
+    <t>마르세유가 위치한 지중해 해안으로, 아름다운 해변과 휴양지로 유명합니다.</t>
+  </si>
+  <si>
+    <t>마르세유 근처를 흐르는 강으로, 아름다운 자연 경관과 하이킹, 피크닉을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>마르세유 근처에 위치한 아름다운 항구로, 보트 여행과 해변 휴양을 즐길 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>아름다운 해변과 푸른 물을 가진 마르세유의 인기 있는 여행지로, 해변 휴양과 해수욕을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마르세유 근처에 있는 작은 섬으로, 다이빙과 스노클링을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>프랑스에서 가장 아름다운 협곡 중 하나로, 등반과 하이킹을 통해 아름다운 자연 경관을 탐험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마르세유의 역사적인 항구로, 유람선 타기와 맛집, 상점 등을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>마르세유의 오래된 동네로, 복고풍의 건물과 예술 갤러리, 카페가 있는 매력적인 지역입니다.</t>
+  </si>
+  <si>
+    <t>마르세유 근처에 있는 아름다운 해안 도시로, 탁월한 포도와 와인, 아름다운 해변을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마르세유의 다양한 신선한 식품과 전통적인 물건들이 판매되는 시장으로, 현지의 맛과 문화를 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>신선한 해산물과 수산물을 구매할 수 있는 마르세유의 대표적인 수산시장입니다.</t>
+  </si>
+  <si>
+    <t>마르세유 근처의 프로방스 지역에서 와인 양조장과 포도밭을 방문하고 프로방스 와인을 맛볼 수 있는 투어입니다.</t>
+  </si>
+  <si>
+    <t>마르세유의 미쉐린 가이드 레스토랑으로, 고품질의 프로방스 요리를 즐길 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>마르세유에서 세계적으로 유명한 고품질의 요리를 즐길 수 있는 레스토랑입니다.</t>
+  </si>
+  <si>
+    <t>아름다운 해안선과 돌림자, 하이킹과 해수욕을 즐길 수 있는 자연 보호 구역입니다.</t>
+  </si>
+  <si>
+    <t>예술과 문화가 번영하는 거리와 광장으로, 다양한 레스토랑, 카페, 예술 갤러리 등이 위치해 있습니다.</t>
+  </si>
+  <si>
+    <t>휴식과 자연을 즐길 수 있는 공원과 예술적인 거리로, 산책이나 피크닉을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>퍼즐과 수수께끼를 풀어가며 협력과 추리력을 발휘하는 룸 이스케이프 게임을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>카지노와 리조트가 함께 있는 곳으로, 도박과 엔터테인먼트를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>팀 전투 게임인 레이저 게임을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>볼링을 즐길 수 있는 볼링장으로, 가족이나 친구들과 함께 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>몽파르나스 근처에 위치한 아름다운 자연 보호 구역으로, 해안 경치와 하이킹을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마르세유의 대표적인 공원으로, 산책, 피크닉, 자전거 타기 등을 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>마르세유의 상징적인 성당으로, 도시 전체를 내려다볼 수 있는 멋진 전망을 제공합니다.</t>
+  </si>
+  <si>
+    <t>마르세유의 예술과 문화를 위한 현대 예술 센터로, 다양한 전시와 공연을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹의 미술관으로, 다양한 예술 작품을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹의 중심에 위치한 아름다운 오페라 극장으로, 공연을 관람할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>현대 예술 작품을 전시하는 리옹의 현대미술관입니다.</t>
+  </si>
+  <si>
+    <t>리옹의 오래된 도시 부분에 위치한 비밀의 통로인 투르노버를 탐험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹에서 다양한 연극 공연을 감상할 수 있는 극장입니다.</t>
+  </si>
+  <si>
+    <t>리옹의 콘피어리 지구에 위치한 박물관과 고고학 사이트로, 역동적인 전시를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹의 역사와 문화를 탐구할 수 있는 박물관입니다.</t>
+  </si>
+  <si>
+    <t>리옹에서 리 코르뷔제의 유산을 탐험할 수 있는 문서 센터입니다.</t>
+  </si>
+  <si>
+    <t>리옹의 현대 무용과 춤을 위한 공간으로, 다양한 공연을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹에서 역사와 문화를 탐험할 수 있는 곳으로, 고대 로마의 유적지인 남포르투스 근처에 위치해 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹의 주요 스포츠 경기가 열리는 축구 경기장입니다.</t>
+  </si>
+  <si>
+    <t>리옹 올림픽 축구 클럽의 역사와 기록을 전시하는 박물관입니다.</t>
+  </si>
+  <si>
+    <t>리옹 올림픽 경기장과 관련된 시설과 공원이 함께 있는 지역입니다.</t>
+  </si>
+  <si>
+    <t>리옹의 전통적인 축구 경기장으로, 리옹 올림픽의 홈구장이었던 곳입니다.</t>
+  </si>
+  <si>
+    <t>라인 강변에 위치한 아름다운 공원으로, 산책이나 피크닉을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹에서 가장 큰 도시 공원으로, 호수, 정원, 동물원 등 다양한 활동이 가능한 장소입니다.</t>
+  </si>
+  <si>
+    <t>리옹 근처에 있는 동굴로, 천연 동굴의 아름다움을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>레이저 게임을 즐길 수 있는 장소로, 친구나 가족과의 역동적인 경험을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹 주변의 아름다운 풍경 위에서 패러글라이딩을 즐길 수 있는 활동입니다.</t>
+  </si>
+  <si>
+    <t>리옹에서 휴식과 식사를 동시에 즐길 수 있는 스파 레스토랑입니다.</t>
+  </si>
+  <si>
+    <t>리옹의 강변에서 강줄기를 따라 유람선을 타고 경치를 감상할 수 있는 크루즈 투어입니다.</t>
+  </si>
+  <si>
+    <t>리옹에서 쇼핑과 거리를 즐길 수 있는 번화가입니다.</t>
+  </si>
+  <si>
+    <t>리옹의 대표적인 백화점으로 다양한 브랜드 제품을 쇼핑할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹에서 유명한 백화점으로 최신 패션 아이템과 럭셔리 브랜드를 만나볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹의 유명한 식품 시장으로, 다양한 프랑스 음식과 와인을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹에서 가장 큰 광장으로, 역사적인 건물과 풍부한 문화적 행사를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹 근처의 아울렛 몰로, 할인된 가격으로 유명 브랜드 제품을 구매할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹의 현대적인 쇼핑몰로, 다양한 상점과 레스토랑을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹의 전통적인 거리 시장으로 신선한 식품과 공예품을 구매할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>전통적인 리옹 요리를 맛볼 수 있는 레스토랑으로, 지역 특산물과 맛있는 음식을 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹에서 유명한 식품 시장으로, 프랑스의 고풍스러운 맛과 풍미를 느낄 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹의 전통적인 레스토랑으로, 미쉘린 가이드 스타 셰프가 준비한 훌륭한 음식과 와인을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>작은 규모의 미니어처와 영화 속 모형을 감상할 수 있는 유니크한 박물관입니다.</t>
+  </si>
+  <si>
+    <t>리옹의 구시가지로, 중세와 르네상스 시대의 아름다운 건물과 협곡을 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹의 고지에 위치한 구경할 만한 명소로, 바실리카 노트르담 드 푸르비에르를 비롯한 역사적인 건축물과 전망을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹의 예술가와 공예인들이 모여 사는 동네로, 유명한 자수 공방과 전통적인 유리 물건들을 찾아볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹의 중심에 위치한 큰 공원으로, 호수, 동물원, 정원 등 다양한 레크리에이션 활동을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>현대적인 건축물과 다양한 전시물을 갖춘 현대 예술과 자연 과학의 박물관입니다.</t>
+  </si>
+  <si>
+    <t>리옹에서 가장 유명한 오페라 극장으로, 고귀한 공연과 아름다운 건축을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹에서 가장 큰 광장으로, 유럽에서 두 번째로 큰 광장으로 유명하며 다양한 행사와 상점이 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹의 중요한 상업 거리로, 다양한 상점과 레스토랑이 있어 쇼핑과 식사를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>리옹의 아이코닉한 성당으로, 화려한 내부 장식과 도시의 전망을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>아티스트 앙리 마티스의 작품을 전시하는 박물관으로, 그의 예술적 진보와 창의성을 살펴볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>화가 마르크 샤갈의 작품을 전시하는 박물관으로, 그의 독특한 회화 스타일과 예술적 업적을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>니스에 위치한 마르크 샤갈의 작품을 전시하는 국립 미술관으로, 그의 예술적 표현과 창의성을 살펴볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>니스의 중심에 위치한 고전적인 극장으로, 다양한 공연과 연극을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>니스에서 가장 유명한 오페라 극장으로, 화려한 공연과 아름다운 건축물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>니스의 주요 스포츠 경기가 열리는 스타디움으로, 다양한 스포츠 이벤트를 관람할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>니스의 콜린 데 부어는 고지에 위치한 공원으로, 아름다운 전망과 역사적인 유적을 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>니스의 대표적인 해안 산책로로, 아름다운 해변과 풍부한 경치를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>생테 폴 드 볼 산중턱에 위치한 현대 미술 갤러리로, 다양한 작품과 전시를 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스포츠에 관련된 전시물과 역사적인 유물을 전시하는 박물관으로, 스포츠 열정을 만끽할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>니스 근처에 있는 자연 보호 지역으로, 아름다운 산악 경치와 다양한 야생동물을 관찰할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스에서 가장 아름다운 협곡 중 하나로, 황량한 계곡과 맑은 강물이 인상적인 자연 경관을 자랑합니다.</t>
+  </si>
+  <si>
+    <t>자연과 천문학을 결합한 트레일로, 아름다운 풍경과 천체 관측을 즐길 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>매력적인 중세 마을로, 예술과 문화가 어우러진 아름다운 곳으로 유명합니다.</t>
+  </si>
+  <si>
+    <t>화려한 붉은 암석과 아름다운 해안 경관이 특징인 산맥으로, 하이킹과 자연 감상을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>다양한 야생동물과 아름다운 산악 경관이 특징인 국립공원으로, 하이킹과 자연 탐험을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>명예로운 그레이스 켈리 공주의 거처로 유명한 궁전으로, 아름다운 건축과 역사를 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>마을 주변의 아름다운 자연 경관과 중세 시대의 매력적인 건물들을 즐길 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>아름다운 협곡과 폭포로 이루어진 자연 경관으로, 하이킹과 자연 감상을 할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>아름다운 경치와 희귀한 동식물을 보호하는 자연 보호구역으로, 하이킹과 자연 탐험을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>니스에서 운행되는 작은 전차로, 도시의 명소들을 편안하게 탐험할 수 있는 재미있는 방법입니다.</t>
+  </si>
+  <si>
+    <t>아름다운 풍경과 천체 관측을 즐길 수 있는 트레일로 유명한 곳입니다.</t>
+  </si>
+  <si>
+    <t>프랑스 알프스의 아름다운 자연 공원으로, 다양한 야생동물과 아름다운 산악 경관을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>니스에서 대여할 수 있는 자전거로, 도시를 자유롭게 탐험하고 해안도로를 따라 즐거운 여행을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>아름다운 골프 코스로 유명한 곳으로, 골퍼들에게 최적의 환경을 제공합니다.</t>
+  </si>
+  <si>
+    <t>아름다운 해안 도시로, 역사적인 건축물과 해변을 감상할 수 있으며, 프로마나드 데즈 잉글레스(프로메나드)와 블루 바이크(자전거)를 통해 도시를 탐험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>안티브의 중심에 위치한 거리로, 많은 상점과 레스토랑이 있는 번화가입니다.</t>
+  </si>
+  <si>
+    <t>안티브의 유명한 쇼핑 명소로, 다양한 브랜드의 제품을 찾을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>니스의 대표적인 해안 도로로, 아름다운 해변을 따라 산책하며 도시의 경치를 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>니스의 꽃 시장으로, 다양한 종류의 꽃과 식물을 구경하고 구입할 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>니스에서 유명한 전통적인 빵집으로, 신선한 빵과 디저트를 맛볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>높은 품질의 초콜릿을 만드는 유명한 초콜릿 가게로, 다양한 맛과 디자인의 초콜릿을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>맛있는 빵과 페이스트리를 판매하는 베이커리로, 지역 주민들과 관광객들에게 인기가 있습니다.</t>
+  </si>
+  <si>
+    <t>신선한 재료를 사용하여 만든 프로벤스 요리를 맛볼 수 있는 레스토랑으로, 지역적인 맛을 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스 리비에라 지방에 위치한 아름다운 중세 도시로, 오래된 돌 담장과 풍부한 역사적인 유산을 갖고 있습니다.</t>
+  </si>
+  <si>
+    <t>니스의 작은 전차로, 도시의 명소들을 여행하며 관광객에게 편리한 이동 수단을 제공합니다.</t>
+  </si>
+  <si>
+    <t>니스의 역사적인 중심지로, 좁은 거리와 매력적인 건물, 다양한 가게와 레스토랑으로 유명합니다.</t>
+  </si>
+  <si>
+    <t>니스에 위치한 카지노로, 도박과 엔터테인먼트를 즐길 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>니스의 다른 카지노로, 도박과 쇼를 즐길 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>신선한 과일, 야채, 수산물 등을 구매할 수 있는 시장으로, 지역적인 맛과 풍부한 다양성을 제공합니다.</t>
+  </si>
+  <si>
+    <t>니스에 위치한 역사적인 건물로, 카지노와 호텔이 함께 있는 유명한 명소입니다.</t>
+  </si>
+  <si>
+    <t>툴루즈의 중세 마을로, 오래된 건물과 협곡, 거리 예술가들의 작품을 즐길 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>니스에서 유명한 해안 산책로로, 아름다운 해변 전망과 함께 걷기에 적합한 장소입니다.</t>
+  </si>
+  <si>
+    <t>프랑스 리비에라 지역에 위치한 중세 도시로, 아름다운 전망과 역사적인 명소를 갖고 있습니다.</t>
+  </si>
+  <si>
+    <t>니스에서 아름다운 전망을 제공하는 언덕으로, 성벽의 유적과 공원을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>툴루즈에 위치한 자연사 박물관으로, 동물, 식물, 지질학 등에 관한 다양한 전시물을 소개합니다.</t>
+  </si>
+  <si>
+    <t>툴루즈에 위치한 예술 박물관으로, 고고학적인 유물과 고전적인 예술 작품을 전시합니다.</t>
+  </si>
+  <si>
+    <t>툴루즈의 현대 예술과 문화를 위한 중요한 센터로, 다양한 전시물과 공연을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>툴루즈의 중세 고딕 양식의 교회로, 아름다운 내부와 유명한 천장로의 가로등이 특징입니다.</t>
+  </si>
+  <si>
+    <t>툴루즈의 중세 로마네스크 양식의 대성당으로, 성서인 성 세르낭의 유해를 안치하고 있습니다.</t>
+  </si>
+  <si>
+    <t>툴루즈에 위치한 축구 경기장으로, 프로 축구 클럽 툴루즈 FC의 경기를 관람할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>툴루즈를 흐르는 주요 강으로, 강변 산책과 수상 스포츠를 즐길 수 있는 아름다운 자연 지형입니다.</t>
+  </si>
+  <si>
+    <t>툴루즈 근처의 아르젠숑 강에 있는 역사적인 다리로, 아름다운 전망과 함께 자연과 문화를 즐길 수 있는 장소입니다.</t>
+  </si>
+  <si>
+    <t>툴루즈 주변의 농경지로, 전원 생활과 농업 문화를 경험할 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>툴루즈의 중세 거리로, 오래된 가게와 레스토랑이 위치해 있습니다.</t>
+  </si>
+  <si>
+    <t>툴루즈의 아름다운 광장으로, 카페와 상점으로 가득 차 있으며 이곳에서 휴식을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>툴루즈의 주요 상업 거리로, 다양한 상점과 레스토랑이 위치해 있습니다.</t>
+  </si>
+  <si>
+    <t>툴루즈의 아름다운 건물로, 역사적인 건축물과 문화적인 이벤트를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>툴루즈의 중심에 위치한 아름다운 광장으로, 툴루즈의 상징적인 건물인 광장탑과 함께 쇼핑과 레스토랑을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>툴루즈에서 흐르는 강으로, 강변 산책과 피크닉을 즐길 수 있는 아름다운 자연 지형입니다.</t>
+  </si>
+  <si>
+    <t>툴루즈의 대성당으로, 고딕 양식과 화려한 스테인드글라스 창이 특징입니다.</t>
+  </si>
+  <si>
+    <t>툴루즈의 중심 광장으로, 광장탑과 아름다운 건물, 공연장 등을 감상할 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 비아리츠에 위치한 피카소 작품을 전시하는 박물관으로, 거장 피카소의 예술과 창의력을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 빌느르봉에 위치한 미술관으로, 페르낭 레제 작가의 작품을 중심으로 다양한 현대미술 작품을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 메스에 위치한 아름다운 오페라 극장으로, 다양한 오페라와 공연을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 빌느르봉에 있는 세인트 에스테븐 대성당으로, 고딕 양식의 아름다운 건축과 화려한 스테인드글라스 창을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 메스에 위치한 미술 박물관으로, 고대부터 현대까지의 다양한 작품과 역사적인 유물을 전시하고 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 메스를 연고로 하는 축구 클럽으로, 프로 축구 경기를 관람할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 메스에 있는 축구 경기장으로, FC 메스의 홈 구장으로 사용되고 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 축구 박물관으로, 축구와 관련된 역사적인 유물과 전시물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 빌느르봉 지역에 위치한 아름다운 숲으로, 자연과 조용함을 즐기며 트레킹이나 자연 관찰을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 보주 지역에 위치한 자연공원으로, 아름다운 경치와 풍부한 생태계를 감상하며 트레킹, 하이킹, 자전거 타기 등 다양한 야외 활동을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 낭트에 있는 전망대로, 낭트의 아름다운 도시 경치를 바라볼 수 있으며, 특히 일몰이나 야경을 감상하기에 좋습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 낭트에 위치한 낭트 성으로, 독특한 현대 예술과 건축이 결합된 성으로 유명하며, 다양한 전시물과 예술 작품을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 낭트에 위치한 예술 박물관으로, 다양한 시대의 예술 작품을 전시하고 있으며, 회화, 조각, 미술 작품 등을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 낭트에 있는 대성당으로, 고딕 양식의 아름다운 건축과 스테인드글라스 창이 특징이며, 역사적인 유적과 예배를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 낭트에 위치한 박물관으로, 작가 쥘 베른의 생애와 작품을 소개하고 있으며, 그의 공상과학 소설을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 낭트에 있는 축구 경기장으로, 다양한 스포츠 행사와 축구 경기를 관람할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스 낭트에 위치한 테마 공원으로, 크리에이티브하고 고유한 기계 작품들을 감상하며 독특한 경험을 할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스 낭트에 있는 역사적인 해양 박물관으로, 바다 모험을 체험하고 해양 역사와 문화에 대해 배울 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스 낭트에 위치한 현대적인 컨벤션 센터로, 다양한 행사와 컨퍼런스, 전시회 등을 개최하고 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 장로와르 강으로, 아름다운 자연 경관과 강변 산책로를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스 낭트의 역사적인 쇼핑 아케이드로, 아름다운 건축과 다양한 상점을 갖추고 있어 쇼핑을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스 낭트의 대표적인 마켓으로, 신선한 식품, 과일, 야채, 생선 등을 구매하고 현지의 생활 문화를 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스 낭트에 있는 창의적인 예술 프로젝트로, 거대한 기계들과 동화적인 동물 조각들을 감상하며 판타지와 현실이 어우러진 세계를 탐험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스 낭트에 위치한 중세 성으로, 역사적인 건축물과 전시회, 이벤트 등을 즐길 수 있으며 지역의 역사와 문화를 배울 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스 낭트의 랜드마크로, 도시의 아름다운 전망을 감상할 수 있는 전망탑입니다.</t>
+  </si>
+  <si>
+    <t>프랑스 스트라스부르의 아름다운 광장으로, 중세 시대의 건축물과 카페들이 있는 공간입니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 현대 예술 및 현대 미술 작품을 전시하는 박물관입니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 국립 극장으로, 다양한 공연과 연극을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 미술관으로, 다양한 장르의 예술 작품을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>프랑스의 유럽 최대의 대학 중 하나로, 역사적이고 아름다운 캠퍼스를 탐험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 전통과 문화를 소개하는 박물관으로, 알자스 지역의 생활과 예술을 경험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 대표적인 성당으로, 고딕 양식의 아름다운 건축과 장대한 규모를 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>토미 운게르의 일러스트 작품을 전시하는 미술관으로, 독특하고 유머러스한 작품을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 축구 경기장으로, 축구 경기를 관람할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 대표적인 공원으로, 아름다운 호수와 정원을 산책하며 휴식을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>다양한 동물 종류를 전시하는 자연사 박물관으로, 자연의 아름다움을 탐험할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 자연 보호구역으로, 아름다운 숲과 산책로를 탐험할 수 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르 근처의 작은 습지 지역으로, 다양한 수조와 생물들을 관찰할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르 주변의 포도원과 경치를 조망하며 항공 열기구를 탈 수 있는 체험을 제공합니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 강을 크루즈로 탐험하며 도시의 아름다운 경치와 유럽의 역사적인 유산을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 역사적인 건물로, 아름다운 광장과 서점, 안틱 시장을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 쇼핑 거리로, 다양한 상점과 레스토랑이 있는 곳입니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 유명한 크리스마스 마켓으로, 화려한 장식과 전통적인 상품들을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 대표적인 백화점으로, 다양한 패션 브랜드와 제품들을 쇼핑할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 역사적인 건물로, 고딕 양식의 건축과 프랑스 요리를 즐길 수 있는 레스토랑입니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 미슐랭 가이드 레스토랑으로, 고풍스럽고 고급스러운 요리를 맛볼 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 전통적인 알자스 요리를 제공하는 레스토랑으로, 맛있는 음식과 분위기를 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 랜드마크로, 고딕 양식의 아름다운 성당으로 섬세한 조각과 장엄한 구조물을 감상할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 중심부에 위치한 대형 광장으로, 다양한 상점과 카페가 있는 곳으로 시장이 열리고 축제와 이벤트가 개최됩니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 섬으로, 섬내의 조용한 산책로와 공원을 통해 자연과 휴식을 즐길 수 있습니다.</t>
+  </si>
+  <si>
+    <t>스트라스부르의 강변 도로로, 아름다운 전망과 강을 따라 걷거나 자전거를 타며 도시의 경치를 즐길 수 있습니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1571,6 +2316,25 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="5"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1595,8 +2359,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1913,4285 +2686,5041 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF14DE2-2A12-436E-AB63-AD7B1578669D}">
-  <dimension ref="A1:E377"/>
+  <dimension ref="A1:F377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D380" sqref="D379:D380"/>
+    <sheetView tabSelected="1" topLeftCell="A368" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D371" sqref="D371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="33.59765625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="6" width="15.19921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="F1" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="F2" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="F3" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="F4" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="F5" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="F6" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="F7" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="F8" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10">
+      <c r="F9" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11">
+      <c r="F10" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12">
+      <c r="F11" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13">
+      <c r="F12" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14">
+      <c r="F13" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15">
+      <c r="F14" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16">
+      <c r="F15" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17">
+      <c r="F16" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="1">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18">
+      <c r="F17" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C18" s="1">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19">
+      <c r="F18" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="1">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20">
+      <c r="F19" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C20">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21">
+      <c r="F20" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22">
+      <c r="F21" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23">
+      <c r="F22" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24">
+      <c r="F23" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25">
+      <c r="F24" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
         <v>2</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26">
+      <c r="F25" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="1">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27">
+      <c r="F26" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
         <v>3</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="1">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28">
+      <c r="F27" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
         <v>3</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="1">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29">
+      <c r="F28" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30">
+      <c r="F29" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
         <v>3</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31">
+      <c r="F30" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
         <v>3</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32">
+      <c r="F31" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>2</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33">
+      <c r="F32" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
         <v>3</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" s="1">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34">
+      <c r="F33" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
         <v>3</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" s="1">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35">
+      <c r="F34" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
         <v>3</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C35">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="F35" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="1">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>4</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="F36" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="1">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>4</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="F37" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="1">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="F38" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="F39" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="F40" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="F41" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="F42" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>3</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="F43" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="F44" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="F45" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="F46" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>3</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="F47" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>3</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49">
+      <c r="F48" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
         <v>6</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C49">
-        <v>4</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50">
+      <c r="F49" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
         <v>6</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51">
+      <c r="F50" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
         <v>6</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C51">
-        <v>5</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54">
+      <c r="F51" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
         <v>6</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>3</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55">
+      <c r="F54" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
         <v>6</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="C55" s="1">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A60">
+      <c r="F55" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
         <v>7</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>3</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A61">
+      <c r="F60" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
         <v>7</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>3</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A63">
+      <c r="F61" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
         <v>8</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C63">
-        <v>4</v>
-      </c>
-      <c r="D63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="C63" s="1">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A64">
+      <c r="F63" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
         <v>8</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C64">
-        <v>4</v>
-      </c>
-      <c r="D64" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C64" s="1">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A65">
+      <c r="F64" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
         <v>8</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>3</v>
       </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="D65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A66">
+      <c r="F65" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
         <v>8</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C66" s="1">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A67">
+      <c r="F66" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
         <v>8</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C67">
-        <v>5</v>
-      </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A68">
+      <c r="F67" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
         <v>8</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>3</v>
       </c>
-      <c r="D68" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="D68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A69">
+      <c r="F68" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
         <v>8</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>3</v>
       </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A71">
+      <c r="F69" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
         <v>8</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C71" s="1">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A73">
+      <c r="F71" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
         <v>9</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C73">
-        <v>4</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C73" s="1">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A74">
+      <c r="F73" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
         <v>9</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>3</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75">
+      <c r="F74" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
         <v>9</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C75" s="1">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A76">
+      <c r="F75" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
         <v>10</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C76">
-        <v>5</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C76" s="1">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A77">
+      <c r="F76" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
         <v>10</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C77" s="1">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A79">
+      <c r="F77" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
         <v>10</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C79">
-        <v>5</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C79" s="1">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A80">
+      <c r="F79" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
         <v>10</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>3</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A81">
+      <c r="F80" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
         <v>11</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="C81" s="1">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A82">
+      <c r="F81" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
         <v>11</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C82">
-        <v>5</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="C82" s="1">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A83">
+      <c r="F82" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
         <v>11</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C83" s="1">
+        <v>4</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A85">
+      <c r="F83" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
         <v>11</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C85">
-        <v>5</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="C85" s="1">
+        <v>5</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A86">
+      <c r="F85" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
         <v>11</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C86">
-        <v>4</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="C86" s="1">
+        <v>4</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A87">
+      <c r="F86" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
         <v>11</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>3</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A88">
+      <c r="F87" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
         <v>11</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C88">
-        <v>4</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="C88" s="1">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A89">
+      <c r="F88" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
         <v>12</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C89">
-        <v>4</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="C89" s="1">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A93">
+      <c r="F89" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
         <v>12</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C93" s="1">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A94">
+      <c r="F93" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
         <v>13</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="C94" s="1">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A96">
+      <c r="F94" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
         <v>13</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="C96" s="1">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A98">
+      <c r="F96" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
         <v>13</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C98">
-        <v>5</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C98" s="1">
+        <v>5</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A100">
+      <c r="F98" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
         <v>14</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>3</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A101">
+      <c r="F100" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
         <v>14</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C101">
-        <v>4</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="C101" s="1">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A102">
+      <c r="F101" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
         <v>14</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>3</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A103">
+      <c r="F102" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
         <v>14</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>3</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A104">
+      <c r="F103" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
         <v>15</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C104">
-        <v>4</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="C104" s="1">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A106">
+      <c r="F104" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
         <v>15</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>3</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A107">
+      <c r="F106" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
         <v>15</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>3</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A108">
+      <c r="F107" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
         <v>15</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>2</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A109">
+      <c r="F108" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
         <v>16</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C109">
-        <v>4</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="C109" s="1">
+        <v>4</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A110">
+      <c r="F109" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
         <v>16</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>3</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A111">
+      <c r="F110" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
         <v>16</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C111">
-        <v>5</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="C111" s="1">
+        <v>5</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A112">
+      <c r="F111" s="3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
         <v>16</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C112">
-        <v>4</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="C112" s="1">
+        <v>4</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A114">
+      <c r="F112" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
         <v>17</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C114">
-        <v>5</v>
-      </c>
-      <c r="D114" t="s">
-        <v>5</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="C114" s="1">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A115">
+      <c r="F114" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
         <v>17</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C115">
-        <v>4</v>
-      </c>
-      <c r="D115" t="s">
-        <v>5</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="C115" s="1">
+        <v>4</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A116">
+      <c r="F115" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
         <v>17</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C116">
-        <v>4</v>
-      </c>
-      <c r="D116" t="s">
-        <v>5</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="C116" s="1">
+        <v>4</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A117">
+      <c r="F116" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
         <v>17</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C117">
-        <v>4</v>
-      </c>
-      <c r="D117" t="s">
-        <v>5</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="C117" s="1">
+        <v>4</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A118">
+      <c r="F117" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
         <v>17</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>3</v>
       </c>
-      <c r="D118" t="s">
-        <v>5</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="D118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A119">
+      <c r="F118" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
         <v>17</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>3</v>
       </c>
-      <c r="D119" t="s">
-        <v>5</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="D119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A120">
+      <c r="F119" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
         <v>17</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>3</v>
       </c>
-      <c r="D120" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="D120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A121">
+      <c r="F120" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
         <v>17</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>2</v>
       </c>
-      <c r="D121" t="s">
-        <v>5</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="D121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A122">
+      <c r="F121" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
         <v>17</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>2</v>
       </c>
-      <c r="D122" t="s">
-        <v>5</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="D122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A123">
+      <c r="F122" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
         <v>17</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>2</v>
       </c>
-      <c r="D123" t="s">
-        <v>5</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="D123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A124">
+      <c r="F123" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
         <v>18</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C124">
-        <v>4</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="C124" s="1">
+        <v>4</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A126">
+      <c r="F124" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
         <v>18</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>3</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="2" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A127">
+      <c r="F126" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
         <v>18</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>3</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="2" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A128">
+      <c r="F127" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
         <v>18</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>2</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="2" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A129">
+      <c r="F128" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
         <v>19</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C129">
-        <v>5</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="C129" s="1">
+        <v>5</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A130">
+      <c r="F129" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
         <v>19</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C130">
-        <v>5</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="C130" s="1">
+        <v>5</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A133">
+      <c r="F130" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
         <v>19</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>3</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A138">
+      <c r="F133" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
         <v>20</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>2</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A139">
+      <c r="F138" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
         <v>20</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C139">
-        <v>4</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="C139" s="1">
+        <v>4</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="2" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A141">
+      <c r="F139" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
         <v>20</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C141">
-        <v>4</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="C141" s="1">
+        <v>4</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A142">
+      <c r="F141" s="3" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" s="1">
         <v>20</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>3</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="2" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A144">
+      <c r="F142" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" s="1">
         <v>21</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C144">
-        <v>4</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="C144" s="1">
+        <v>4</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="2" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A145">
+      <c r="F144" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A145" s="1">
         <v>21</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>3</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A146">
+      <c r="F145" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146" s="1">
         <v>21</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C146">
-        <v>4</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="C146" s="1">
+        <v>4</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="2" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A147">
+      <c r="F146" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147" s="1">
         <v>21</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C147">
-        <v>4</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="C147" s="1">
+        <v>4</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A148">
+      <c r="F147" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A148" s="1">
         <v>21</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>3</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A149">
+      <c r="F148" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
         <v>21</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C149">
-        <v>4</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="C149" s="1">
+        <v>4</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A150">
+      <c r="F149" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
         <v>21</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C150">
-        <v>4</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="C150" s="1">
+        <v>4</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A152">
+      <c r="F150" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A152" s="1">
         <v>21</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C152">
-        <v>4</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="C152" s="1">
+        <v>4</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A155">
+      <c r="F152" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A155" s="1">
         <v>22</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C155">
-        <v>4</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="C155" s="1">
+        <v>4</v>
+      </c>
+      <c r="D155" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="2" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A156">
+      <c r="F155" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A156" s="1">
         <v>22</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C156">
-        <v>5</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="C156" s="1">
+        <v>5</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="2" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A158">
+      <c r="F156" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A158" s="1">
         <v>22</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C158">
-        <v>4</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="C158" s="1">
+        <v>4</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="2" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A166">
+      <c r="F158" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A166" s="1">
         <v>23</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C166">
-        <v>4</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="C166" s="1">
+        <v>4</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A167">
+      <c r="F166" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A167" s="1">
         <v>24</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C167">
-        <v>4</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="C167" s="1">
+        <v>4</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A168">
+      <c r="F167" s="3" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A168" s="1">
         <v>24</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C168">
-        <v>5</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="C168" s="1">
+        <v>5</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A169">
+      <c r="F168" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A169" s="1">
         <v>24</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C169">
-        <v>4</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="C169" s="1">
+        <v>4</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="2" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A170">
+      <c r="F169" s="3" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A170" s="1">
         <v>24</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C170">
-        <v>4</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="C170" s="1">
+        <v>4</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A171">
+      <c r="F170" s="3" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A171" s="1">
         <v>24</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C171">
-        <v>4</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="C171" s="1">
+        <v>4</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A172">
+      <c r="F171" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A172" s="1">
         <v>24</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C172">
-        <v>4</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="C172" s="1">
+        <v>4</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A173">
+      <c r="F172" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A173" s="1">
         <v>24</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C173">
-        <v>4</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="C173" s="1">
+        <v>4</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A174">
+      <c r="F173" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A174" s="1">
         <v>24</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>3</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A175">
+      <c r="F174" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A175" s="1">
         <v>24</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C175">
-        <v>5</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="C175" s="1">
+        <v>5</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="2" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A176">
+      <c r="F175" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A176" s="1">
         <v>25</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C176">
-        <v>4</v>
-      </c>
-      <c r="D176" t="s">
-        <v>5</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="C176" s="1">
+        <v>4</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A177">
+      <c r="F176" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A177" s="1">
         <v>25</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C177">
-        <v>5</v>
-      </c>
-      <c r="D177" t="s">
-        <v>5</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="C177" s="1">
+        <v>5</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A179">
+      <c r="F177" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
         <v>25</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C179">
-        <v>4</v>
-      </c>
-      <c r="D179" t="s">
-        <v>5</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="C179" s="1">
+        <v>4</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A180">
+      <c r="F179" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A180" s="1">
         <v>25</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>3</v>
       </c>
-      <c r="D180" t="s">
-        <v>5</v>
-      </c>
-      <c r="E180" t="s">
+      <c r="D180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A182">
+      <c r="F180" s="3" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A182" s="1">
         <v>25</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C182">
-        <v>4</v>
-      </c>
-      <c r="D182" t="s">
-        <v>5</v>
-      </c>
-      <c r="E182" t="s">
+      <c r="C182" s="1">
+        <v>4</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A184">
+      <c r="F182" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A184" s="1">
         <v>26</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C184">
-        <v>4</v>
-      </c>
-      <c r="D184" t="s">
+      <c r="C184" s="1">
+        <v>4</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="2" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A185">
+      <c r="F184" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A185" s="1">
         <v>27</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C185">
-        <v>4</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="C185" s="1">
+        <v>4</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="2" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A186">
+      <c r="F185" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A186" s="1">
         <v>27</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>3</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A187">
+      <c r="F186" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
         <v>27</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C187">
-        <v>5</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="C187" s="1">
+        <v>5</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="2" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A188">
+      <c r="F187" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A188" s="1">
         <v>27</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C188">
-        <v>4</v>
-      </c>
-      <c r="D188" t="s">
+      <c r="C188" s="1">
+        <v>4</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A189">
+      <c r="F188" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A189" s="1">
         <v>27</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C189">
-        <v>5</v>
-      </c>
-      <c r="D189" t="s">
+      <c r="C189" s="1">
+        <v>5</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A191">
+      <c r="F189" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
         <v>27</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C191">
-        <v>5</v>
-      </c>
-      <c r="D191" t="s">
+      <c r="C191" s="1">
+        <v>5</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A192">
+      <c r="F191" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A192" s="1">
         <v>27</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>3</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A193">
+      <c r="F192" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
         <v>27</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C193">
-        <v>4</v>
-      </c>
-      <c r="D193" t="s">
+      <c r="C193" s="1">
+        <v>4</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A194">
+      <c r="F193" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
         <v>27</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C194">
-        <v>4</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="C194" s="1">
+        <v>4</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A195">
+      <c r="F194" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
         <v>27</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C195">
-        <v>5</v>
-      </c>
-      <c r="D195" t="s">
+      <c r="C195" s="1">
+        <v>5</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A196">
+      <c r="F195" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
         <v>27</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>3</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A197">
+      <c r="F196" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
         <v>27</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C197">
-        <v>4</v>
-      </c>
-      <c r="D197" t="s">
+      <c r="C197" s="1">
+        <v>4</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A199">
+      <c r="F197" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A199" s="1">
         <v>27</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C199">
-        <v>5</v>
-      </c>
-      <c r="D199" t="s">
+      <c r="C199" s="1">
+        <v>5</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="2" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A200">
+      <c r="F199" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A200" s="1">
         <v>27</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>3</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A201">
+      <c r="F200" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A201" s="1">
         <v>28</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C201">
-        <v>4</v>
-      </c>
-      <c r="D201" t="s">
+      <c r="C201" s="1">
+        <v>4</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A202">
+      <c r="F201" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A202" s="1">
         <v>28</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C202">
-        <v>4</v>
-      </c>
-      <c r="D202" t="s">
+      <c r="C202" s="1">
+        <v>4</v>
+      </c>
+      <c r="D202" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A203">
+      <c r="F202" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A203" s="1">
         <v>28</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C203">
-        <v>5</v>
-      </c>
-      <c r="D203" t="s">
+      <c r="C203" s="1">
+        <v>5</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="2" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A204">
+      <c r="F203" s="3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A204" s="1">
         <v>28</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C204">
-        <v>4</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="C204" s="1">
+        <v>4</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A205">
+      <c r="F204" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A205" s="1">
         <v>28</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C205">
-        <v>4</v>
-      </c>
-      <c r="D205" t="s">
+      <c r="C205" s="1">
+        <v>4</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="2" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A209">
+      <c r="F205" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A209" s="1">
         <v>28</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C209">
-        <v>4</v>
-      </c>
-      <c r="D209" t="s">
+      <c r="C209" s="1">
+        <v>4</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="2" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A210">
+      <c r="F209" s="3" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A210" s="1">
         <v>28</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>3</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="2" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A211">
+      <c r="F210" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A211" s="1">
         <v>29</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C211">
-        <v>5</v>
-      </c>
-      <c r="D211" t="s">
+      <c r="C211" s="1">
+        <v>5</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A214">
+      <c r="F211" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A214" s="1">
         <v>29</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C214">
-        <v>4</v>
-      </c>
-      <c r="D214" t="s">
+      <c r="C214" s="1">
+        <v>4</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="2" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A215">
+      <c r="F214" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A215" s="1">
         <v>29</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C215">
-        <v>4</v>
-      </c>
-      <c r="D215" t="s">
+      <c r="C215" s="1">
+        <v>4</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="2" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A217">
+      <c r="F215" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A217" s="1">
         <v>29</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C217">
-        <v>4</v>
-      </c>
-      <c r="D217" t="s">
+      <c r="C217" s="1">
+        <v>4</v>
+      </c>
+      <c r="D217" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="2" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A219">
+      <c r="F217" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A219" s="1">
         <v>30</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C219">
-        <v>5</v>
-      </c>
-      <c r="D219" t="s">
+      <c r="C219" s="1">
+        <v>5</v>
+      </c>
+      <c r="D219" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="2" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A220">
+      <c r="F219" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A220" s="1">
         <v>30</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C220">
-        <v>4</v>
-      </c>
-      <c r="D220" t="s">
+      <c r="C220" s="1">
+        <v>4</v>
+      </c>
+      <c r="D220" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="2" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A221">
+      <c r="F220" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A221" s="1">
         <v>30</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C221">
-        <v>5</v>
-      </c>
-      <c r="D221" t="s">
+      <c r="C221" s="1">
+        <v>5</v>
+      </c>
+      <c r="D221" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="2" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A222">
+      <c r="F221" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A222" s="1">
         <v>30</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C222">
-        <v>4</v>
-      </c>
-      <c r="D222" t="s">
+      <c r="C222" s="1">
+        <v>4</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E222" t="s">
+      <c r="E222" s="2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A223">
+      <c r="F222" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A223" s="1">
         <v>30</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C223">
-        <v>4</v>
-      </c>
-      <c r="D223" t="s">
+      <c r="C223" s="1">
+        <v>4</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E223" t="s">
+      <c r="E223" s="2" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A227">
+      <c r="F223" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A227" s="1">
         <v>31</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C227">
-        <v>5</v>
-      </c>
-      <c r="D227" t="s">
+      <c r="C227" s="1">
+        <v>5</v>
+      </c>
+      <c r="D227" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="2" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A229">
+      <c r="F227" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A229" s="1">
         <v>31</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C229">
-        <v>4</v>
-      </c>
-      <c r="D229" t="s">
+      <c r="C229" s="1">
+        <v>4</v>
+      </c>
+      <c r="D229" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A231">
+      <c r="F229" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A231" s="1">
         <v>31</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C231">
-        <v>4</v>
-      </c>
-      <c r="D231" t="s">
+      <c r="C231" s="1">
+        <v>4</v>
+      </c>
+      <c r="D231" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="2" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A232">
+      <c r="F231" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A232" s="1">
         <v>32</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C232">
-        <v>4</v>
-      </c>
-      <c r="D232" t="s">
+      <c r="C232" s="1">
+        <v>4</v>
+      </c>
+      <c r="D232" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A233">
+      <c r="F232" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A233" s="1">
         <v>32</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C233">
-        <v>4</v>
-      </c>
-      <c r="D233" t="s">
+      <c r="C233" s="1">
+        <v>4</v>
+      </c>
+      <c r="D233" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="2" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A234">
+      <c r="F233" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A234" s="1">
         <v>32</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="1">
         <v>3</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A236" s="1">
+        <v>32</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C236" s="1">
+        <v>5</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E234" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A236">
+      <c r="E236" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A238" s="1">
+        <v>33</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C238" s="1">
+        <v>4</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A239" s="1">
+        <v>33</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C239" s="1">
+        <v>4</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A242" s="1">
+        <v>33</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C242" s="1">
+        <v>5</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A243" s="1">
+        <v>33</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C243" s="1">
+        <v>5</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A245" s="1">
+        <v>34</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C245" s="1">
+        <v>4</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A247" s="1">
+        <v>34</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C247" s="1">
+        <v>4</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A248" s="1">
+        <v>34</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C248" s="1">
+        <v>5</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A249" s="1">
+        <v>34</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C249" s="1">
+        <v>4</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A250" s="1">
+        <v>34</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C250" s="1">
+        <v>5</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A251" s="1">
+        <v>35</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C251" s="1">
+        <v>4</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A253" s="1">
+        <v>36</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C253" s="1">
+        <v>4</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B236" t="s">
-        <v>182</v>
-      </c>
-      <c r="C236">
-        <v>5</v>
-      </c>
-      <c r="D236" t="s">
-        <v>98</v>
-      </c>
-      <c r="E236" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A238">
-        <v>33</v>
-      </c>
-      <c r="B238" t="s">
-        <v>178</v>
-      </c>
-      <c r="C238">
-        <v>4</v>
-      </c>
-      <c r="D238" t="s">
+      <c r="E253" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A254" s="1">
+        <v>36</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C254" s="1">
+        <v>3</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A255" s="1">
+        <v>36</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C255" s="1">
+        <v>4</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A259" s="1">
+        <v>37</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C259" s="1">
+        <v>3</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A260" s="1">
+        <v>37</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C260" s="1">
+        <v>4</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A261" s="1">
+        <v>37</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C261" s="1">
+        <v>3</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A267" s="1">
+        <v>39</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C267" s="1">
+        <v>4</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A268" s="1">
+        <v>39</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C268" s="1">
+        <v>5</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A272" s="1">
+        <v>40</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C272" s="1">
+        <v>5</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E238" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A239">
-        <v>33</v>
-      </c>
-      <c r="B239" t="s">
-        <v>183</v>
-      </c>
-      <c r="C239">
-        <v>4</v>
-      </c>
-      <c r="D239" t="s">
+      <c r="E272" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A273" s="1">
+        <v>40</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C273" s="1">
+        <v>4</v>
+      </c>
+      <c r="D273" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E239" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A242">
-        <v>33</v>
-      </c>
-      <c r="B242" t="s">
-        <v>177</v>
-      </c>
-      <c r="C242">
-        <v>5</v>
-      </c>
-      <c r="D242" t="s">
+      <c r="E273" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A275" s="1">
+        <v>40</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C275" s="1">
+        <v>4</v>
+      </c>
+      <c r="D275" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E242" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A243">
-        <v>33</v>
-      </c>
-      <c r="B243" t="s">
-        <v>416</v>
-      </c>
-      <c r="C243">
-        <v>5</v>
-      </c>
-      <c r="D243" t="s">
+      <c r="E275" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A278" s="1">
+        <v>41</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C278" s="1">
+        <v>4</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A279" s="1">
+        <v>41</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C279" s="1">
+        <v>4</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A280" s="1">
+        <v>41</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C280" s="1">
+        <v>5</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A281" s="1">
+        <v>41</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C281" s="1">
+        <v>5</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A282" s="1">
+        <v>41</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C282" s="1">
+        <v>4</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A287" s="1">
+        <v>42</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C287" s="1">
+        <v>4</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A289" s="1">
+        <v>42</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C289" s="1">
+        <v>4</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A290" s="1">
+        <v>42</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C290" s="1">
+        <v>3</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A293" s="1">
+        <v>43</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C293" s="1">
+        <v>3</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A294" s="1">
+        <v>43</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C294" s="1">
+        <v>5</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A311" s="1">
+        <v>49</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C311" s="1">
+        <v>4</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E243" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A245">
-        <v>34</v>
-      </c>
-      <c r="B245" t="s">
-        <v>184</v>
-      </c>
-      <c r="C245">
-        <v>4</v>
-      </c>
-      <c r="D245" t="s">
-        <v>5</v>
-      </c>
-      <c r="E245" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A247">
-        <v>34</v>
-      </c>
-      <c r="B247" t="s">
-        <v>185</v>
-      </c>
-      <c r="C247">
-        <v>4</v>
-      </c>
-      <c r="D247" t="s">
-        <v>5</v>
-      </c>
-      <c r="E247" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A248">
-        <v>34</v>
-      </c>
-      <c r="B248" t="s">
-        <v>186</v>
-      </c>
-      <c r="C248">
-        <v>5</v>
-      </c>
-      <c r="D248" t="s">
-        <v>5</v>
-      </c>
-      <c r="E248" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A249">
-        <v>34</v>
-      </c>
-      <c r="B249" t="s">
-        <v>187</v>
-      </c>
-      <c r="C249">
-        <v>4</v>
-      </c>
-      <c r="D249" t="s">
-        <v>5</v>
-      </c>
-      <c r="E249" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A250">
-        <v>34</v>
-      </c>
-      <c r="B250" t="s">
-        <v>188</v>
-      </c>
-      <c r="C250">
-        <v>5</v>
-      </c>
-      <c r="D250" t="s">
-        <v>5</v>
-      </c>
-      <c r="E250" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A251">
-        <v>35</v>
-      </c>
-      <c r="B251" t="s">
-        <v>189</v>
-      </c>
-      <c r="C251">
-        <v>4</v>
-      </c>
-      <c r="D251" t="s">
+      <c r="E311" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A314" s="1">
+        <v>50</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C314" s="1">
+        <v>4</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A315" s="1">
+        <v>50</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C315" s="1">
+        <v>5</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A317" s="1">
+        <v>50</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C317" s="1">
+        <v>5</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A319" s="1">
+        <v>50</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C319" s="1">
+        <v>4</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A320" s="1">
+        <v>51</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C320" s="1">
+        <v>3</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E251" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A253">
-        <v>36</v>
-      </c>
-      <c r="B253" t="s">
-        <v>190</v>
-      </c>
-      <c r="C253">
-        <v>4</v>
-      </c>
-      <c r="D253" t="s">
+      <c r="E320" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A327" s="1">
+        <v>53</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C327" s="1">
+        <v>5</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A328" s="1">
+        <v>53</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C328" s="1">
+        <v>4</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A329" s="1">
+        <v>53</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C329" s="1">
+        <v>3</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A331" s="1">
+        <v>53</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C331" s="1">
+        <v>4</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A332" s="1">
+        <v>54</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C332" s="1">
+        <v>5</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A333" s="1">
+        <v>54</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C333" s="1">
+        <v>4</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A338" s="1">
+        <v>55</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C338" s="1">
+        <v>4</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A342" s="1">
+        <v>56</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C342" s="1">
+        <v>4</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A343" s="1">
+        <v>56</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C343" s="1">
+        <v>4</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A344" s="1">
+        <v>56</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C344" s="1">
+        <v>3</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A345" s="1">
+        <v>57</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C345" s="1">
+        <v>4</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A346" s="1">
+        <v>57</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C346" s="1">
+        <v>3</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A347" s="1">
+        <v>57</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C347" s="1">
+        <v>5</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A348" s="1">
+        <v>57</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C348" s="1">
+        <v>3</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A350" s="1">
+        <v>57</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C350" s="1">
+        <v>3</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A351" s="1">
+        <v>57</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C351" s="1">
+        <v>5</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A352" s="1">
+        <v>57</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C352" s="1">
+        <v>3</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A355" s="1">
+        <v>58</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C355" s="1">
+        <v>3</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A356" s="1">
+        <v>59</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C356" s="1">
+        <v>4</v>
+      </c>
+      <c r="D356" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E253" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A254">
-        <v>36</v>
-      </c>
-      <c r="B254" t="s">
-        <v>191</v>
-      </c>
-      <c r="C254">
+      <c r="E356" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A357" s="1">
+        <v>59</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C357" s="1">
         <v>3</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D357" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E254" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A255">
-        <v>36</v>
-      </c>
-      <c r="B255" t="s">
-        <v>192</v>
-      </c>
-      <c r="C255">
-        <v>4</v>
-      </c>
-      <c r="D255" t="s">
+      <c r="E357" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A358" s="1">
+        <v>59</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C358" s="1">
+        <v>4</v>
+      </c>
+      <c r="D358" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E255" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A259">
-        <v>37</v>
-      </c>
-      <c r="B259" t="s">
-        <v>193</v>
-      </c>
-      <c r="C259">
+      <c r="E358" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A359" s="1">
+        <v>59</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C359" s="1">
         <v>3</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D359" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A360" s="1">
+        <v>59</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C360" s="1">
+        <v>4</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A362" s="1">
+        <v>60</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C362" s="1">
+        <v>4</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A364" s="1">
+        <v>61</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C364" s="1">
+        <v>4</v>
+      </c>
+      <c r="D364" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E259" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A260">
-        <v>37</v>
-      </c>
-      <c r="B260" t="s">
-        <v>194</v>
-      </c>
-      <c r="C260">
-        <v>4</v>
-      </c>
-      <c r="D260" t="s">
+      <c r="E364" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A365" s="1">
+        <v>61</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C365" s="1">
+        <v>4</v>
+      </c>
+      <c r="D365" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E260" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A261">
-        <v>37</v>
-      </c>
-      <c r="B261" t="s">
-        <v>195</v>
-      </c>
-      <c r="C261">
+      <c r="E365" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A366" s="1">
+        <v>61</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C366" s="1">
+        <v>5</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A367" s="1">
+        <v>61</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C367" s="1">
+        <v>4</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A369" s="1">
+        <v>62</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C369" s="1">
+        <v>5</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A370" s="1">
+        <v>62</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C370" s="1">
+        <v>4</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A372" s="1">
+        <v>62</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C372" s="1">
+        <v>4</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A373" s="1">
+        <v>63</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C373" s="1">
+        <v>4</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A374" s="1">
+        <v>63</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C374" s="1">
         <v>3</v>
       </c>
-      <c r="D261" t="s">
-        <v>47</v>
-      </c>
-      <c r="E261" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A267">
-        <v>39</v>
-      </c>
-      <c r="B267" t="s">
-        <v>196</v>
-      </c>
-      <c r="C267">
-        <v>4</v>
-      </c>
-      <c r="D267" t="s">
+      <c r="D374" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A376" s="1">
         <v>63</v>
       </c>
-      <c r="E267" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A268">
-        <v>39</v>
-      </c>
-      <c r="B268" t="s">
-        <v>197</v>
-      </c>
-      <c r="C268">
-        <v>5</v>
-      </c>
-      <c r="D268" t="s">
+      <c r="B376" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C376" s="1">
+        <v>3</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A377" s="1">
         <v>63</v>
       </c>
-      <c r="E268" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A272">
-        <v>40</v>
-      </c>
-      <c r="B272" t="s">
-        <v>198</v>
-      </c>
-      <c r="C272">
-        <v>5</v>
-      </c>
-      <c r="D272" t="s">
+      <c r="B377" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C377" s="1">
+        <v>3</v>
+      </c>
+      <c r="D377" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E272" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A273">
-        <v>40</v>
-      </c>
-      <c r="B273" t="s">
-        <v>199</v>
-      </c>
-      <c r="C273">
-        <v>4</v>
-      </c>
-      <c r="D273" t="s">
-        <v>102</v>
-      </c>
-      <c r="E273" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A275">
-        <v>40</v>
-      </c>
-      <c r="B275" t="s">
-        <v>433</v>
-      </c>
-      <c r="C275">
-        <v>4</v>
-      </c>
-      <c r="D275" t="s">
-        <v>102</v>
-      </c>
-      <c r="E275" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A278">
-        <v>41</v>
-      </c>
-      <c r="B278" t="s">
-        <v>200</v>
-      </c>
-      <c r="C278">
-        <v>4</v>
-      </c>
-      <c r="D278" t="s">
-        <v>5</v>
-      </c>
-      <c r="E278" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A279">
-        <v>41</v>
-      </c>
-      <c r="B279" t="s">
-        <v>201</v>
-      </c>
-      <c r="C279">
-        <v>4</v>
-      </c>
-      <c r="D279" t="s">
-        <v>5</v>
-      </c>
-      <c r="E279" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A280">
-        <v>41</v>
-      </c>
-      <c r="B280" t="s">
-        <v>436</v>
-      </c>
-      <c r="C280">
-        <v>5</v>
-      </c>
-      <c r="D280" t="s">
-        <v>5</v>
-      </c>
-      <c r="E280" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A281">
-        <v>41</v>
-      </c>
-      <c r="B281" t="s">
-        <v>202</v>
-      </c>
-      <c r="C281">
-        <v>5</v>
-      </c>
-      <c r="D281" t="s">
-        <v>5</v>
-      </c>
-      <c r="E281" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A282">
-        <v>41</v>
-      </c>
-      <c r="B282" t="s">
-        <v>439</v>
-      </c>
-      <c r="C282">
-        <v>4</v>
-      </c>
-      <c r="D282" t="s">
-        <v>5</v>
-      </c>
-      <c r="E282" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A287">
-        <v>42</v>
-      </c>
-      <c r="B287" t="s">
-        <v>203</v>
-      </c>
-      <c r="C287">
-        <v>4</v>
-      </c>
-      <c r="D287" t="s">
-        <v>27</v>
-      </c>
-      <c r="E287" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A289">
-        <v>42</v>
-      </c>
-      <c r="B289" t="s">
-        <v>204</v>
-      </c>
-      <c r="C289">
-        <v>4</v>
-      </c>
-      <c r="D289" t="s">
-        <v>27</v>
-      </c>
-      <c r="E289" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A290">
-        <v>42</v>
-      </c>
-      <c r="B290" t="s">
-        <v>443</v>
-      </c>
-      <c r="C290">
-        <v>3</v>
-      </c>
-      <c r="D290" t="s">
-        <v>27</v>
-      </c>
-      <c r="E290" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A293">
-        <v>43</v>
-      </c>
-      <c r="B293" t="s">
-        <v>205</v>
-      </c>
-      <c r="C293">
-        <v>3</v>
-      </c>
-      <c r="D293" t="s">
-        <v>32</v>
-      </c>
-      <c r="E293" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A294">
-        <v>43</v>
-      </c>
-      <c r="B294" t="s">
-        <v>206</v>
-      </c>
-      <c r="C294">
-        <v>5</v>
-      </c>
-      <c r="D294" t="s">
-        <v>32</v>
-      </c>
-      <c r="E294" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A311">
-        <v>49</v>
-      </c>
-      <c r="B311" t="s">
-        <v>207</v>
-      </c>
-      <c r="C311">
-        <v>4</v>
-      </c>
-      <c r="D311" t="s">
-        <v>102</v>
-      </c>
-      <c r="E311" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A314">
-        <v>50</v>
-      </c>
-      <c r="B314" t="s">
-        <v>208</v>
-      </c>
-      <c r="C314">
-        <v>4</v>
-      </c>
-      <c r="D314" t="s">
-        <v>5</v>
-      </c>
-      <c r="E314" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A315">
-        <v>50</v>
-      </c>
-      <c r="B315" t="s">
-        <v>209</v>
-      </c>
-      <c r="C315">
-        <v>5</v>
-      </c>
-      <c r="D315" t="s">
-        <v>5</v>
-      </c>
-      <c r="E315" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A317">
-        <v>50</v>
-      </c>
-      <c r="B317" t="s">
-        <v>210</v>
-      </c>
-      <c r="C317">
-        <v>5</v>
-      </c>
-      <c r="D317" t="s">
-        <v>5</v>
-      </c>
-      <c r="E317" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A319">
-        <v>50</v>
-      </c>
-      <c r="B319" t="s">
-        <v>211</v>
-      </c>
-      <c r="C319">
-        <v>4</v>
-      </c>
-      <c r="D319" t="s">
-        <v>5</v>
-      </c>
-      <c r="E319" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A320">
-        <v>51</v>
-      </c>
-      <c r="B320" t="s">
-        <v>212</v>
-      </c>
-      <c r="C320">
-        <v>3</v>
-      </c>
-      <c r="D320" t="s">
-        <v>27</v>
-      </c>
-      <c r="E320" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A327">
-        <v>53</v>
-      </c>
-      <c r="B327" t="s">
-        <v>213</v>
-      </c>
-      <c r="C327">
-        <v>5</v>
-      </c>
-      <c r="D327" t="s">
-        <v>43</v>
-      </c>
-      <c r="E327" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A328">
-        <v>53</v>
-      </c>
-      <c r="B328" t="s">
-        <v>214</v>
-      </c>
-      <c r="C328">
-        <v>4</v>
-      </c>
-      <c r="D328" t="s">
-        <v>43</v>
-      </c>
-      <c r="E328" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A329">
-        <v>53</v>
-      </c>
-      <c r="B329" t="s">
-        <v>215</v>
-      </c>
-      <c r="C329">
-        <v>3</v>
-      </c>
-      <c r="D329" t="s">
-        <v>43</v>
-      </c>
-      <c r="E329" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A331">
-        <v>53</v>
-      </c>
-      <c r="B331" t="s">
-        <v>216</v>
-      </c>
-      <c r="C331">
-        <v>4</v>
-      </c>
-      <c r="D331" t="s">
-        <v>43</v>
-      </c>
-      <c r="E331" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A332">
-        <v>54</v>
-      </c>
-      <c r="B332" t="s">
-        <v>217</v>
-      </c>
-      <c r="C332">
-        <v>5</v>
-      </c>
-      <c r="D332" t="s">
-        <v>47</v>
-      </c>
-      <c r="E332" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A333">
-        <v>54</v>
-      </c>
-      <c r="B333" t="s">
-        <v>218</v>
-      </c>
-      <c r="C333">
-        <v>4</v>
-      </c>
-      <c r="D333" t="s">
-        <v>47</v>
-      </c>
-      <c r="E333" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A338">
-        <v>55</v>
-      </c>
-      <c r="B338" t="s">
-        <v>220</v>
-      </c>
-      <c r="C338">
-        <v>4</v>
-      </c>
-      <c r="D338" t="s">
-        <v>58</v>
-      </c>
-      <c r="E338" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A342">
-        <v>56</v>
-      </c>
-      <c r="B342" t="s">
-        <v>219</v>
-      </c>
-      <c r="C342">
-        <v>4</v>
-      </c>
-      <c r="D342" t="s">
-        <v>63</v>
-      </c>
-      <c r="E342" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A343">
-        <v>56</v>
-      </c>
-      <c r="B343" t="s">
-        <v>221</v>
-      </c>
-      <c r="C343">
-        <v>4</v>
-      </c>
-      <c r="D343" t="s">
-        <v>63</v>
-      </c>
-      <c r="E343" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A344">
-        <v>56</v>
-      </c>
-      <c r="B344" t="s">
-        <v>462</v>
-      </c>
-      <c r="C344">
-        <v>3</v>
-      </c>
-      <c r="D344" t="s">
-        <v>63</v>
-      </c>
-      <c r="E344" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A345">
-        <v>57</v>
-      </c>
-      <c r="B345" t="s">
-        <v>222</v>
-      </c>
-      <c r="C345">
-        <v>4</v>
-      </c>
-      <c r="D345" t="s">
-        <v>5</v>
-      </c>
-      <c r="E345" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A346">
-        <v>57</v>
-      </c>
-      <c r="B346" t="s">
-        <v>223</v>
-      </c>
-      <c r="C346">
-        <v>3</v>
-      </c>
-      <c r="D346" t="s">
-        <v>5</v>
-      </c>
-      <c r="E346" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A347">
-        <v>57</v>
-      </c>
-      <c r="B347" t="s">
-        <v>224</v>
-      </c>
-      <c r="C347">
-        <v>5</v>
-      </c>
-      <c r="D347" t="s">
-        <v>5</v>
-      </c>
-      <c r="E347" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A348">
-        <v>57</v>
-      </c>
-      <c r="B348" t="s">
-        <v>225</v>
-      </c>
-      <c r="C348">
-        <v>3</v>
-      </c>
-      <c r="D348" t="s">
-        <v>5</v>
-      </c>
-      <c r="E348" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A350">
-        <v>57</v>
-      </c>
-      <c r="B350" t="s">
-        <v>467</v>
-      </c>
-      <c r="C350">
-        <v>3</v>
-      </c>
-      <c r="D350" t="s">
-        <v>5</v>
-      </c>
-      <c r="E350" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A351">
-        <v>57</v>
-      </c>
-      <c r="B351" t="s">
-        <v>226</v>
-      </c>
-      <c r="C351">
-        <v>5</v>
-      </c>
-      <c r="D351" t="s">
-        <v>5</v>
-      </c>
-      <c r="E351" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A352">
-        <v>57</v>
-      </c>
-      <c r="B352" t="s">
-        <v>227</v>
-      </c>
-      <c r="C352">
-        <v>3</v>
-      </c>
-      <c r="D352" t="s">
-        <v>5</v>
-      </c>
-      <c r="E352" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A355">
-        <v>58</v>
-      </c>
-      <c r="B355" t="s">
-        <v>228</v>
-      </c>
-      <c r="C355">
-        <v>3</v>
-      </c>
-      <c r="D355" t="s">
-        <v>27</v>
-      </c>
-      <c r="E355" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A356">
-        <v>59</v>
-      </c>
-      <c r="B356" t="s">
-        <v>229</v>
-      </c>
-      <c r="C356">
-        <v>4</v>
-      </c>
-      <c r="D356" t="s">
-        <v>32</v>
-      </c>
-      <c r="E356" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A357">
-        <v>59</v>
-      </c>
-      <c r="B357" t="s">
-        <v>230</v>
-      </c>
-      <c r="C357">
-        <v>3</v>
-      </c>
-      <c r="D357" t="s">
-        <v>32</v>
-      </c>
-      <c r="E357" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A358">
-        <v>59</v>
-      </c>
-      <c r="B358" t="s">
-        <v>231</v>
-      </c>
-      <c r="C358">
-        <v>4</v>
-      </c>
-      <c r="D358" t="s">
-        <v>32</v>
-      </c>
-      <c r="E358" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A359">
-        <v>59</v>
-      </c>
-      <c r="B359" t="s">
-        <v>476</v>
-      </c>
-      <c r="C359">
-        <v>3</v>
-      </c>
-      <c r="D359" t="s">
-        <v>32</v>
-      </c>
-      <c r="E359" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A360">
-        <v>59</v>
-      </c>
-      <c r="B360" t="s">
-        <v>232</v>
-      </c>
-      <c r="C360">
-        <v>4</v>
-      </c>
-      <c r="D360" t="s">
-        <v>32</v>
-      </c>
-      <c r="E360" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A362">
-        <v>60</v>
-      </c>
-      <c r="B362" t="s">
-        <v>233</v>
-      </c>
-      <c r="C362">
-        <v>4</v>
-      </c>
-      <c r="D362" t="s">
-        <v>43</v>
-      </c>
-      <c r="E362" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A364">
-        <v>61</v>
-      </c>
-      <c r="B364" t="s">
-        <v>234</v>
-      </c>
-      <c r="C364">
-        <v>4</v>
-      </c>
-      <c r="D364" t="s">
-        <v>47</v>
-      </c>
-      <c r="E364" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A365">
-        <v>61</v>
-      </c>
-      <c r="B365" t="s">
-        <v>235</v>
-      </c>
-      <c r="C365">
-        <v>4</v>
-      </c>
-      <c r="D365" t="s">
-        <v>47</v>
-      </c>
-      <c r="E365" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A366">
-        <v>61</v>
-      </c>
-      <c r="B366" t="s">
-        <v>236</v>
-      </c>
-      <c r="C366">
-        <v>5</v>
-      </c>
-      <c r="D366" t="s">
-        <v>47</v>
-      </c>
-      <c r="E366" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A367">
-        <v>61</v>
-      </c>
-      <c r="B367" t="s">
-        <v>237</v>
-      </c>
-      <c r="C367">
-        <v>4</v>
-      </c>
-      <c r="D367" t="s">
-        <v>47</v>
-      </c>
-      <c r="E367" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A369">
-        <v>62</v>
-      </c>
-      <c r="B369" t="s">
-        <v>238</v>
-      </c>
-      <c r="C369">
-        <v>5</v>
-      </c>
-      <c r="D369" t="s">
-        <v>58</v>
-      </c>
-      <c r="E369" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A370">
-        <v>62</v>
-      </c>
-      <c r="B370" t="s">
-        <v>239</v>
-      </c>
-      <c r="C370">
-        <v>4</v>
-      </c>
-      <c r="D370" t="s">
-        <v>58</v>
-      </c>
-      <c r="E370" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A372">
-        <v>62</v>
-      </c>
-      <c r="B372" t="s">
-        <v>240</v>
-      </c>
-      <c r="C372">
-        <v>4</v>
-      </c>
-      <c r="D372" t="s">
-        <v>58</v>
-      </c>
-      <c r="E372" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A373">
-        <v>63</v>
-      </c>
-      <c r="B373" t="s">
-        <v>486</v>
-      </c>
-      <c r="C373">
-        <v>4</v>
-      </c>
-      <c r="D373" t="s">
-        <v>102</v>
-      </c>
-      <c r="E373" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A374">
-        <v>63</v>
-      </c>
-      <c r="B374" t="s">
-        <v>241</v>
-      </c>
-      <c r="C374">
-        <v>3</v>
-      </c>
-      <c r="D374" t="s">
-        <v>102</v>
-      </c>
-      <c r="E374" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A376">
-        <v>63</v>
-      </c>
-      <c r="B376" t="s">
-        <v>488</v>
-      </c>
-      <c r="C376">
-        <v>3</v>
-      </c>
-      <c r="D376" t="s">
-        <v>102</v>
-      </c>
-      <c r="E376" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A377">
-        <v>63</v>
-      </c>
-      <c r="B377" t="s">
-        <v>242</v>
-      </c>
-      <c r="C377">
-        <v>3</v>
-      </c>
-      <c r="D377" t="s">
-        <v>102</v>
-      </c>
-      <c r="E377" t="s">
+      <c r="E377" s="2" t="s">
         <v>490</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
